--- a/medicine/Enfance/Darwin_Teilhet/Darwin_Teilhet.xlsx
+++ b/medicine/Enfance/Darwin_Teilhet/Darwin_Teilhet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darwin Teilhet, né le 20 mai 1904 à Wyanet, Illinois dans l’Illinois et mort le 18 avril 1964 à Palo Alto en Californie, est un écrivain et scénariste américain, auteur de roman policier, d’espionnage et de littérature d'enfance et de jeunesse. Une partie de ses romans est écrit avec sa femme Hildegarde Teilhet (22 novembre 1905-24 janvier 1999).
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolescent, il voyage en France et travaille comme jongleur dans un cirque. Pendant la Seconde Guerre mondiale, il est officier de renseignement et obtient le grade de major. Puis, il enseigne le journalisme à l'université Stanford avant de devenir scénariste et consultant pour divers producteurs de films.
 En 1931, il publie son premier roman, Death Flies High. Avec sa femme, Hildegarde Teilhet, il crée le personnage du baron von Kaz, détective privé dans le roman The Crimson Hair Murders, publié en 1936.
-Sous le pseudonyme de Cyrus T. Fisher, il écrit des romans pour la jeunesse, dont The Avion My Uncle Flew (en), en 1946, qui lui vaut d'être nommé pour la médaille Newbery sans toutefois l'obtenir[1].
+Sous le pseudonyme de Cyrus T. Fisher, il écrit des romans pour la jeunesse, dont The Avion My Uncle Flew (en), en 1946, qui lui vaut d'être nommé pour la médaille Newbery sans toutefois l'obtenir.
 Son dernier roman Le Bidule (The Big Runaround), publié en 1964, est un roman d'espionnage.
 Teilhet et son épouse sont enterrés côte à côte dans le Golden Gate National Cemetery.
 </t>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Death Flies High, 1931
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Death Flies High, 1931
 Murder in the Air, 1931
 The Talking Sparrow Murders, 1934
 Bright Destination, 1935
@@ -567,22 +586,7 @@
 The Lion's Skin, 1955
 The Road to Glory, 1956
 The Big Runaround, 1964 (autre titre Dangerous Encounter)
-Le Bidule, Série noire no 921, 1965
-Romans coécrit avec Hildegarde Teilhet
-The Crimson Hair Murders, 1936
-The Feather Cloak Murders, 1936
-Les Meurtres du manteau de plumes, collection La Mauvaise Chance no 11, Éditions Le Portulan., 1946
-The Broken Face Murders, 1940
-Romans de littérature d’enfance et de jeunesse signés Cyrus T. Fisher
-The Avion My Uncle Flew (en), 1946
-Ab Carmody's Treasure: Mystery and Adventure in Guatemala, 1948
-The Hawaiian Sword, 1956
-Romans signés William H. Fielding
-The Unpossessed, 1951
-Take Me As I Am, 1952
-Beautiful Humbug, 1954
-Nouvelle
-Body Missing! (1934)</t>
+Le Bidule, Série noire no 921, 1965</t>
         </is>
       </c>
     </row>
@@ -607,10 +611,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans coécrit avec Hildegarde Teilhet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Crimson Hair Murders, 1936
+The Feather Cloak Murders, 1936
+Les Meurtres du manteau de plumes, collection La Mauvaise Chance no 11, Éditions Le Portulan., 1946
+The Broken Face Murders, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d’enfance et de jeunesse signés Cyrus T. Fisher</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Avion My Uncle Flew (en), 1946
+Ab Carmody's Treasure: Mystery and Adventure in Guatemala, 1948
+The Hawaiian Sword, 1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés William H. Fielding</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Unpossessed, 1951
+Take Me As I Am, 1952
+Beautiful Humbug, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Body Missing! (1934)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Darwin_Teilhet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1937 : They Wanted to Marry, réalisé par Lew Landers, avec Betty Furness
 1952 : No Room for the Groom (en), adaptation de My True Love réalisée par Douglas Sirk, avec Tony Curtis et Piper Laurie
@@ -618,31 +775,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Darwin_Teilhet</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Darwin_Teilhet</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les Années Série noire vol.2 (1959-1966) Encrage « Travaux » no 17, 1993
 Claude Mesplède et Jean-Jacques Schleret, SN Voyage au bout de la noire, Futuropolis, 1982, p. 352.</t>
